--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2912625.832032101</v>
+        <v>2911791.509616716</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613641</v>
+        <v>5736895.963613639</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259459</v>
+        <v>1116439.498983823</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6468813.401689915</v>
+        <v>6476956.178943402</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>236.1590669682531</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -670,7 +670,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>161.7579275267961</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>75.95794553299343</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>65.42520756919141</v>
       </c>
     </row>
     <row r="5">
@@ -952,7 +952,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -961,10 +961,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.8526731989415</v>
+        <v>111.7055961692895</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>53.45973614417019</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>251.4659110210281</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>162.3882686062622</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>250.5033668008612</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>42.43741174507632</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1359,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>380.5744808990071</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>380.4788578110251</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>374.8748036390326</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>384.6523263594348</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>391.2756209570118</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>379.0965142972586</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>282.2549254297217</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>59.94375808726009</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>49.06695612249464</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>194.4399322437723</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>228.9453998542475</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>320.7946921480466</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>354.3782108873456</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>371.0924768838995</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>371.3828193525533</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>137.4403276616772</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>140.0334001948745</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>122.5668936737604</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.63809846787963</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.07964557503419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>211.6087646642274</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>254.4256790104996</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>245.6024006410358</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>250.7344808773769</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>210.415936550076</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>51.92813933849533</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>380.5744808990071</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535246</v>
+        <v>380.4788578110251</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>374.8748036390326</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>384.6523263594348</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>391.2756209570118</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>379.0965142972586</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>282.2549254297217</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>59.94375808726009</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275022</v>
+        <v>49.06695612249464</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>194.4399322437723</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>228.9453998542475</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>320.7946921480466</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298454</v>
+        <v>354.3782108873456</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>371.0924768838995</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>371.3828193525533</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>143.8379517450632</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>137.4403276616772</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>114.2210708762733</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>122.5668936737604</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>89.63809846787963</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>158.9833634700514</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>254.4256790104996</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>245.6024006410358</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>250.7344808773769</v>
       </c>
       <c r="X16" t="n">
-        <v>154.9297186166801</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>196.9438546562855</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415066</v>
+        <v>380.5744808990071</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>380.4788578110251</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>374.8748036390326</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019343</v>
+        <v>384.6523263594348</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>391.2756209570118</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>379.0965142972586</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>282.2549254297217</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>0.6269367247524882</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275022</v>
+        <v>108.3837774850027</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>194.4399322437723</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>228.9453998542475</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>320.7946921480466</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>354.3782108873456</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>371.0924768838995</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>371.3828193525533</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>160.2782223612665</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>25.40141884908388</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>158.9833634700514</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>211.6087646642274</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>254.4256790104996</v>
       </c>
       <c r="V19" t="n">
-        <v>149.3617472818433</v>
+        <v>245.6024006410358</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>250.7344808773769</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>210.415936550076</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>196.9438546562855</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415066</v>
+        <v>380.5744808990071</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535246</v>
+        <v>380.4788578110251</v>
       </c>
       <c r="D20" t="n">
-        <v>370.9203488815321</v>
+        <v>374.8748036390326</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019343</v>
+        <v>384.6523263594348</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995114</v>
+        <v>391.2756209570118</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397582</v>
+        <v>379.0965142972586</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722213</v>
+        <v>282.2549254297217</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975963</v>
+        <v>59.94375808726009</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275022</v>
+        <v>49.06695612249464</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862718</v>
+        <v>194.4399322437723</v>
       </c>
       <c r="U20" t="n">
-        <v>224.9909450967471</v>
+        <v>228.9453998542475</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905462</v>
+        <v>320.7946921480466</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298449</v>
+        <v>354.3782108873456</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263991</v>
+        <v>371.0924768838995</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950529</v>
+        <v>371.3828193525533</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>63.11274753658993</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.61243891626</v>
+        <v>122.5668936737604</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>137.3093790721355</v>
+        <v>158.9833634700514</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.6087646642274</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>254.4256790104996</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>245.6024006410358</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>250.7344808773769</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>210.415936550076</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>196.9438546562855</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415066</v>
+        <v>380.5744808990071</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535246</v>
+        <v>380.4788578110251</v>
       </c>
       <c r="D23" t="n">
-        <v>370.9203488815321</v>
+        <v>374.8748036390326</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019343</v>
+        <v>384.6523263594348</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995114</v>
+        <v>331.9587995945042</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397582</v>
+        <v>379.0965142972586</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722213</v>
+        <v>282.2549254297217</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975963</v>
+        <v>59.94375808726009</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275022</v>
+        <v>108.3837774850027</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862718</v>
+        <v>194.4399322437723</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967466</v>
+        <v>228.9453998542475</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905462</v>
+        <v>320.7946921480466</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298452</v>
+        <v>354.3782108873456</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263991</v>
+        <v>371.0924768838995</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950529</v>
+        <v>371.3828193525533</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.323767603766</v>
+        <v>160.2782223612665</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>25.40141884908388</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>59.05046397544597</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125509</v>
+        <v>158.9833634700514</v>
       </c>
       <c r="T25" t="n">
-        <v>207.654309906727</v>
+        <v>211.6087646642274</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>254.4256790104996</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>245.6024006410358</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>250.7344808773769</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>210.415936550076</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.989399898785</v>
+        <v>196.9438546562855</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106875</v>
+        <v>384.0792634791853</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227055</v>
+        <v>383.9836403912033</v>
       </c>
       <c r="D26" t="n">
-        <v>384.748275150713</v>
+        <v>378.3795862192108</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711152</v>
+        <v>388.157108939613</v>
       </c>
       <c r="F26" t="n">
-        <v>401.1490924686922</v>
+        <v>394.7804035371901</v>
       </c>
       <c r="G26" t="n">
-        <v>388.969985808939</v>
+        <v>382.6012968774369</v>
       </c>
       <c r="H26" t="n">
-        <v>292.1283969414021</v>
+        <v>173.8711479447186</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894051</v>
+        <v>63.44854066743834</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1517587144219</v>
+        <v>111.8885600651809</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>197.9447148239505</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659279</v>
+        <v>232.4501824344258</v>
       </c>
       <c r="V26" t="n">
-        <v>330.668163659727</v>
+        <v>324.2994747282249</v>
       </c>
       <c r="W26" t="n">
-        <v>364.251682399026</v>
+        <v>357.8829934675239</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955799</v>
+        <v>374.5972594640778</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642337</v>
+        <v>374.8876019327316</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567436</v>
+        <v>147.3427343252414</v>
       </c>
       <c r="D28" t="n">
-        <v>142.228682773162</v>
+        <v>135.8599938416598</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232067</v>
+        <v>137.2620025917045</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733576</v>
+        <v>140.9451102418554</v>
       </c>
       <c r="G28" t="n">
-        <v>149.906871706555</v>
+        <v>143.5381827750528</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854409</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>70.13263728146437</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419729</v>
+        <v>62.38028675269512</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>162.4881460502296</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759079</v>
+        <v>215.1135472444057</v>
       </c>
       <c r="U28" t="n">
-        <v>100.5461401316346</v>
+        <v>257.9304615906779</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>213.9207191302542</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.8173261679659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106875</v>
+        <v>384.0792634791853</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227055</v>
+        <v>383.9836403912033</v>
       </c>
       <c r="D29" t="n">
-        <v>384.748275150713</v>
+        <v>378.3795862192108</v>
       </c>
       <c r="E29" t="n">
-        <v>394.5257978711152</v>
+        <v>388.157108939613</v>
       </c>
       <c r="F29" t="n">
-        <v>401.1490924686922</v>
+        <v>394.7804035371901</v>
       </c>
       <c r="G29" t="n">
-        <v>388.969985808939</v>
+        <v>382.6012968774369</v>
       </c>
       <c r="H29" t="n">
-        <v>292.1283969414021</v>
+        <v>285.7597080099</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894051</v>
+        <v>63.44854066743834</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1517587144219</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>197.9447148239505</v>
       </c>
       <c r="U29" t="n">
-        <v>238.8188713659279</v>
+        <v>232.4501824344258</v>
       </c>
       <c r="V29" t="n">
-        <v>330.668163659727</v>
+        <v>324.2994747282249</v>
       </c>
       <c r="W29" t="n">
-        <v>364.251682399026</v>
+        <v>357.8829934675239</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955799</v>
+        <v>374.5972594640778</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642337</v>
+        <v>374.8876019327316</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>37.19141268214605</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>149.906871706555</v>
+        <v>76.93945264267363</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854409</v>
+        <v>126.0716762539387</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997956005</v>
+        <v>93.14288104805789</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419729</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759079</v>
+        <v>215.1135472444057</v>
       </c>
       <c r="U31" t="n">
-        <v>264.29915052218</v>
+        <v>257.9304615906779</v>
       </c>
       <c r="V31" t="n">
-        <v>255.4758721527162</v>
+        <v>249.107183221214</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890573</v>
+        <v>254.2392634575551</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>213.9207191302542</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.4486372364637</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106875</v>
+        <v>384.0792634791853</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227055</v>
+        <v>383.9836403912033</v>
       </c>
       <c r="D32" t="n">
-        <v>384.748275150713</v>
+        <v>378.3795862192108</v>
       </c>
       <c r="E32" t="n">
-        <v>394.5257978711152</v>
+        <v>388.157108939613</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686922</v>
+        <v>394.7804035371901</v>
       </c>
       <c r="G32" t="n">
-        <v>388.969985808939</v>
+        <v>382.6012968774369</v>
       </c>
       <c r="H32" t="n">
-        <v>292.1283969414021</v>
+        <v>285.7597080099</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>111.8885600651809</v>
       </c>
       <c r="T32" t="n">
-        <v>184.9689883133625</v>
+        <v>197.9447148239505</v>
       </c>
       <c r="U32" t="n">
-        <v>238.8188713659279</v>
+        <v>232.4501824344258</v>
       </c>
       <c r="V32" t="n">
-        <v>330.668163659727</v>
+        <v>324.2994747282249</v>
       </c>
       <c r="W32" t="n">
-        <v>364.251682399026</v>
+        <v>357.8829934675239</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955799</v>
+        <v>326.1572400663348</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642337</v>
+        <v>374.8876019327316</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729469</v>
+        <v>133.6658638944407</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232067</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.906871706555</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854409</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997956005</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.97637395042332</v>
+        <v>162.4881460502296</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>215.1135472444057</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>257.9304615906779</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>249.107183221214</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>254.2392634575551</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617564</v>
+        <v>213.9207191302542</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.8173261679659</v>
+        <v>200.4486372364637</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106874</v>
+        <v>384.0792634791853</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227054</v>
+        <v>383.9836403912033</v>
       </c>
       <c r="D35" t="n">
-        <v>384.7482751507129</v>
+        <v>378.3795862192108</v>
       </c>
       <c r="E35" t="n">
-        <v>394.5257978711151</v>
+        <v>388.157108939613</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686922</v>
+        <v>394.7804035371901</v>
       </c>
       <c r="G35" t="n">
-        <v>388.969985808939</v>
+        <v>382.6012968774369</v>
       </c>
       <c r="H35" t="n">
-        <v>292.1283969414021</v>
+        <v>285.7597080099</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894046</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.257248996683</v>
+        <v>111.8885600651809</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>197.9447148239505</v>
       </c>
       <c r="U35" t="n">
-        <v>235.7133810836673</v>
+        <v>184.0101630366824</v>
       </c>
       <c r="V35" t="n">
-        <v>330.668163659727</v>
+        <v>324.2994747282249</v>
       </c>
       <c r="W35" t="n">
-        <v>364.251682399026</v>
+        <v>357.8829934675239</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955799</v>
+        <v>374.5972594640778</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.2562908642337</v>
+        <v>374.8876019327316</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729469</v>
+        <v>163.7830049414447</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>90.66069703519224</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>93.14288104805789</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.8568349817317</v>
+        <v>162.4881460502296</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4822361759078</v>
+        <v>215.1135472444057</v>
       </c>
       <c r="U37" t="n">
-        <v>264.29915052218</v>
+        <v>257.9304615906779</v>
       </c>
       <c r="V37" t="n">
-        <v>124.473603479573</v>
+        <v>249.107183221214</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890572</v>
+        <v>254.2392634575551</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8173261679658</v>
+        <v>200.4486372364637</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106874</v>
+        <v>384.0792634791853</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227054</v>
+        <v>383.9836403912033</v>
       </c>
       <c r="D38" t="n">
-        <v>384.7482751507129</v>
+        <v>378.3795862192108</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711151</v>
+        <v>388.157108939613</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686922</v>
+        <v>394.7804035371901</v>
       </c>
       <c r="G38" t="n">
-        <v>181.5510917712258</v>
+        <v>382.6012968774369</v>
       </c>
       <c r="H38" t="n">
-        <v>292.1283969414021</v>
+        <v>285.7597080099</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894046</v>
+        <v>63.44854066743834</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554527</v>
+        <v>197.9447148239505</v>
       </c>
       <c r="U38" t="n">
-        <v>238.8188713659279</v>
+        <v>232.4501824344258</v>
       </c>
       <c r="V38" t="n">
-        <v>330.668163659727</v>
+        <v>324.2994747282249</v>
       </c>
       <c r="W38" t="n">
-        <v>364.251682399026</v>
+        <v>357.8829934675239</v>
       </c>
       <c r="X38" t="n">
-        <v>380.9659483955799</v>
+        <v>374.5972594640778</v>
       </c>
       <c r="Y38" t="n">
-        <v>381.2562908642337</v>
+        <v>374.8876019327316</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729469</v>
+        <v>163.7830049414447</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567436</v>
+        <v>147.3427343252414</v>
       </c>
       <c r="D40" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232066</v>
+        <v>137.2620025917045</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065549</v>
+        <v>61.68698721653373</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997955999</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>215.1135472444057</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>257.9304615906779</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>249.107183221214</v>
       </c>
       <c r="W40" t="n">
-        <v>70.97637395042376</v>
+        <v>254.2392634575551</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679658</v>
+        <v>200.4486372364637</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>245.2379843596723</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>47.64512042712315</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>32.78212094609412</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>86.5491849825636</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>106.4033353961557</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>181.0952307682285</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.0040983215158</v>
+        <v>312.7108231006533</v>
       </c>
       <c r="C2" t="n">
-        <v>306.91991167519</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D2" t="n">
-        <v>306.4963858086546</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>296.1965743659554</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147452</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4372,10 +4372,10 @@
         <v>1123.868675817053</v>
       </c>
       <c r="X2" t="n">
-        <v>723.2252779860053</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y2" t="n">
-        <v>723.2252779860053</v>
+        <v>722.9320027651428</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>52.35970185319792</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>508.1659581184966</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>1025.008892784822</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>843.6595175967814</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C4" t="n">
-        <v>843.6595175967814</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>684.1648729196913</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1494.438784742378</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.438784742378</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>1256.094922602061</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y4" t="n">
-        <v>1031.359223990826</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="5">
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L5" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4600,16 +4600,16 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1123.868675817053</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>740.1083749522213</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X5" t="n">
-        <v>740.1083749522213</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y5" t="n">
         <v>483.6915333371289</v>
@@ -4646,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>52.35970185319792</v>
+        <v>219.3581718355396</v>
       </c>
       <c r="K6" t="n">
-        <v>508.1659581184966</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.263917876656</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>362.1705454383725</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
         <v>41.76508562960205</v>
@@ -4758,19 +4758,19 @@
         <v>1299.499495805762</v>
       </c>
       <c r="U7" t="n">
-        <v>1299.499495805762</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V7" t="n">
-        <v>1025.613750745284</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W7" t="n">
-        <v>771.6077800169726</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X7" t="n">
-        <v>533.263917876656</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.263917876656</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1946.792430650117</v>
+        <v>80.25049765783463</v>
       </c>
       <c r="C8" t="n">
-        <v>1536.667839963387</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D8" t="n">
-        <v>1132.203910056448</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E8" t="n">
-        <v>717.8636945733447</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F8" t="n">
-        <v>296.8332825270322</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>292.1454024602685</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,25 +4807,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.973206274203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.973206274203</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.973206274203</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.973206274203</v>
+        <v>86.43127328192004</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.63115809937611</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1541.803011918786</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1355.411243798696</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1115.862504775398</v>
       </c>
       <c r="U10" t="n">
-        <v>1288.365834796576</v>
+        <v>833.0643573215223</v>
       </c>
       <c r="V10" t="n">
-        <v>1014.480089736098</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W10" t="n">
-        <v>735.4104252449724</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X10" t="n">
-        <v>497.0665631046558</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y10" t="n">
-        <v>272.3308644934205</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133291</v>
+        <v>2368.573805347941</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281246</v>
+        <v>1984.251726750946</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208992</v>
+        <v>1605.590308933741</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560573</v>
+        <v>1217.052605540372</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489456</v>
+        <v>821.824705583795</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764625</v>
+        <v>438.898933566362</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>153.7929482838148</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5056,7 +5056,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
         <v>4300.467232046283</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159925</v>
+        <v>4612.622302589226</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4416.218330625819</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>4184.960350975064</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.98692220683</v>
+        <v>3860.92530840128</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176684</v>
+        <v>3502.967519626183</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3128.12663388487</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2752.992472922695</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>489.1849187088039</v>
+        <v>587.868667385766</v>
       </c>
       <c r="C13" t="n">
-        <v>347.8884571052052</v>
+        <v>587.868667385766</v>
       </c>
       <c r="D13" t="n">
-        <v>347.8884571052052</v>
+        <v>587.868667385766</v>
       </c>
       <c r="E13" t="n">
-        <v>347.8884571052052</v>
+        <v>587.868667385766</v>
       </c>
       <c r="F13" t="n">
-        <v>213.0542420504813</v>
+        <v>449.0400535860921</v>
       </c>
       <c r="G13" t="n">
-        <v>213.0542420504813</v>
+        <v>307.5921746013703</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>183.7872314965618</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>132.6152891949824</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>312.4566590163695</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>597.6428013955792</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>912.1958999352216</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1218.323724428621</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1503.173376854244</v>
       </c>
       <c r="P13" t="n">
-        <v>1761.542230672484</v>
+        <v>1734.137859203006</v>
       </c>
       <c r="Q13" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="R13" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="S13" t="n">
-        <v>1811.749318263833</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="T13" t="n">
-        <v>1601.99749007522</v>
+        <v>1611.208704171103</v>
       </c>
       <c r="U13" t="n">
-        <v>1348.996253456029</v>
+        <v>1354.213068806962</v>
       </c>
       <c r="V13" t="n">
-        <v>1104.907419230236</v>
+        <v>1106.129835836219</v>
       </c>
       <c r="W13" t="n">
-        <v>855.6346655737952</v>
+        <v>852.8626834348279</v>
       </c>
       <c r="X13" t="n">
-        <v>647.0877142681635</v>
+        <v>640.3213333842461</v>
       </c>
       <c r="Y13" t="n">
-        <v>647.0877142681635</v>
+        <v>587.868667385766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.613014133291</v>
+        <v>2368.573805347941</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1984.251726750946</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1605.590308933741</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1217.052605540372</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>821.824705583795</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>438.898933566362</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>153.7929482838148</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159925</v>
+        <v>4612.622302589226</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4416.218330625819</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4184.960350975064</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.98692220683</v>
+        <v>3860.92530840128</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3502.967519626183</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.17704518032</v>
+        <v>3128.12663388487</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963095</v>
+        <v>2752.992472922695</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>549.0499539559215</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>549.0499539559215</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N15" t="n">
-        <v>549.0499539559215</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1253.007044501816</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.6566788919779</v>
+        <v>707.0864678165357</v>
       </c>
       <c r="C16" t="n">
-        <v>448.3602172883792</v>
+        <v>561.795607467987</v>
       </c>
       <c r="D16" t="n">
-        <v>448.3602172883792</v>
+        <v>561.795607467987</v>
       </c>
       <c r="E16" t="n">
-        <v>317.2463129913835</v>
+        <v>561.795607467987</v>
       </c>
       <c r="F16" t="n">
-        <v>317.2463129913835</v>
+        <v>422.9669936683131</v>
       </c>
       <c r="G16" t="n">
-        <v>179.7928327516118</v>
+        <v>307.5921746013703</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>183.7872314965618</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.5301994049079</v>
+        <v>132.6152891949824</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>312.4566590163695</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>597.6428013955792</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>912.1958999352216</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478248</v>
+        <v>1218.323724428621</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113797</v>
+        <v>1503.173376854244</v>
       </c>
       <c r="P16" t="n">
-        <v>1761.542230672484</v>
+        <v>1734.137859203006</v>
       </c>
       <c r="Q16" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1664.365675074311</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820136</v>
+        <v>1664.365675074311</v>
       </c>
       <c r="U16" t="n">
-        <v>1434.451719820136</v>
+        <v>1407.37003971017</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.362885594343</v>
+        <v>1159.286806739427</v>
       </c>
       <c r="W16" t="n">
-        <v>941.0901319379022</v>
+        <v>906.0196543380362</v>
       </c>
       <c r="X16" t="n">
-        <v>784.5954666685284</v>
+        <v>906.0196543380362</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.6566788919779</v>
+        <v>707.0864678165357</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.613014133291</v>
+        <v>2308.657824173691</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1924.335745576696</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208991</v>
+        <v>1545.674327759491</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1157.136624366123</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>761.9087244095449</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>378.9829523921119</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>93.8769671095647</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159925</v>
+        <v>4552.706321414976</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941469</v>
+        <v>4356.302349451569</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035665</v>
+        <v>4125.044369800814</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3801.00932722703</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3443.051538451933</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>3068.21065271062</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2693.076491748445</v>
       </c>
     </row>
     <row r="18">
@@ -5603,19 +5603,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>839.1649570942416</v>
+        <v>118.9016965280813</v>
       </c>
       <c r="C19" t="n">
-        <v>697.8684954906429</v>
+        <v>118.9016965280813</v>
       </c>
       <c r="D19" t="n">
-        <v>568.1707616482378</v>
+        <v>118.9016965280813</v>
       </c>
       <c r="E19" t="n">
-        <v>437.0568573512421</v>
+        <v>118.9016965280813</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512421</v>
+        <v>118.9016965280813</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114703</v>
+        <v>118.9016965280813</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>118.9016965280813</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5301994049079</v>
+        <v>132.6152891949824</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>312.4566590163695</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>597.6428013955792</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>912.1958999352216</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478248</v>
+        <v>1218.323724428621</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113797</v>
+        <v>1503.173376854244</v>
       </c>
       <c r="P19" t="n">
-        <v>1761.542230672484</v>
+        <v>1734.137859203006</v>
       </c>
       <c r="Q19" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="R19" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="S19" t="n">
-        <v>1856.27421278407</v>
+        <v>1664.365675074311</v>
       </c>
       <c r="T19" t="n">
-        <v>1646.522384595457</v>
+        <v>1450.619448140748</v>
       </c>
       <c r="U19" t="n">
-        <v>1393.521147976266</v>
+        <v>1193.623812776607</v>
       </c>
       <c r="V19" t="n">
-        <v>1242.650696176424</v>
+        <v>945.5405798058639</v>
       </c>
       <c r="W19" t="n">
-        <v>1242.650696176424</v>
+        <v>692.2734274044731</v>
       </c>
       <c r="X19" t="n">
-        <v>1034.103744870792</v>
+        <v>479.7320773538913</v>
       </c>
       <c r="Y19" t="n">
-        <v>839.1649570942416</v>
+        <v>280.7988908323908</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2340.613014133291</v>
+        <v>2368.573805347941</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281246</v>
+        <v>1984.251726750946</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1605.590308933741</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560573</v>
+        <v>1217.052605540372</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489451</v>
+        <v>821.824705583795</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764621</v>
+        <v>438.898933566362</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388648</v>
+        <v>153.7929482838148</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159925</v>
+        <v>4612.622302589226</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941469</v>
+        <v>4416.218330625819</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035665</v>
+        <v>4184.960350975064</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3860.92530840128</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176684</v>
+        <v>3502.967519626183</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180321</v>
+        <v>3128.12663388487</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963096</v>
+        <v>2752.992472922695</v>
       </c>
     </row>
     <row r="21">
@@ -5840,19 +5840,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>182.7137268369972</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>354.3507036540801</v>
+        <v>217.0486407954313</v>
       </c>
       <c r="C22" t="n">
-        <v>213.0542420504814</v>
+        <v>217.0486407954313</v>
       </c>
       <c r="D22" t="n">
-        <v>213.0542420504814</v>
+        <v>217.0486407954313</v>
       </c>
       <c r="E22" t="n">
-        <v>213.0542420504814</v>
+        <v>217.0486407954313</v>
       </c>
       <c r="F22" t="n">
-        <v>213.0542420504814</v>
+        <v>217.0486407954313</v>
       </c>
       <c r="G22" t="n">
-        <v>213.0542420504814</v>
+        <v>217.0486407954313</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5910,52 +5910,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5301994049079</v>
+        <v>132.6152891949824</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362204</v>
+        <v>312.4566590163695</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253555</v>
+        <v>597.6428013955792</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749234</v>
+        <v>912.1958999352216</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478248</v>
+        <v>1218.323724428621</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113797</v>
+        <v>1503.173376854244</v>
       </c>
       <c r="P22" t="n">
-        <v>1761.542230672484</v>
+        <v>1734.137859203006</v>
       </c>
       <c r="Q22" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="S22" t="n">
-        <v>1662.102062797047</v>
+        <v>1664.365675074311</v>
       </c>
       <c r="T22" t="n">
-        <v>1662.102062797047</v>
+        <v>1450.619448140748</v>
       </c>
       <c r="U22" t="n">
-        <v>1409.100826177856</v>
+        <v>1193.623812776607</v>
       </c>
       <c r="V22" t="n">
-        <v>1165.011991952063</v>
+        <v>945.5405798058639</v>
       </c>
       <c r="W22" t="n">
-        <v>915.739238295622</v>
+        <v>692.2734274044731</v>
       </c>
       <c r="X22" t="n">
-        <v>707.1922869899902</v>
+        <v>479.7320773538913</v>
       </c>
       <c r="Y22" t="n">
-        <v>512.2534992134397</v>
+        <v>280.7988908323908</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133291</v>
+        <v>2308.657824173691</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1924.335745576696</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1545.674327759491</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560573</v>
+        <v>1157.136624366123</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489452</v>
+        <v>821.824705583795</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764621</v>
+        <v>438.898933566362</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388648</v>
+        <v>153.7929482838148</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6001,13 +6001,13 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046282</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q23" t="n">
         <v>4621.628238841575</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159925</v>
+        <v>4552.706321414976</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4356.302349451569</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4125.044369800814</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.986922206831</v>
+        <v>3801.00932722703</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3443.051538451933</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3068.21065271062</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2693.076491748445</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>620.0619485594027</v>
+        <v>118.9016965280813</v>
       </c>
       <c r="C25" t="n">
-        <v>620.0619485594027</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>490.3642147169975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>359.2503104200017</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>359.2503104200017</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5301994049079</v>
+        <v>132.6152891949824</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362204</v>
+        <v>312.4566590163695</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253555</v>
+        <v>597.6428013955792</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749234</v>
+        <v>912.1958999352216</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478248</v>
+        <v>1218.323724428621</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113797</v>
+        <v>1503.173376854244</v>
       </c>
       <c r="P25" t="n">
-        <v>1761.542230672484</v>
+        <v>1734.137859203006</v>
       </c>
       <c r="Q25" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1824.954931104666</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1664.365675074311</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1450.619448140748</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1193.623812776607</v>
       </c>
       <c r="V25" t="n">
-        <v>1181.450483200945</v>
+        <v>945.5405798058639</v>
       </c>
       <c r="W25" t="n">
-        <v>1181.450483200945</v>
+        <v>692.2734274044731</v>
       </c>
       <c r="X25" t="n">
-        <v>972.9035318953129</v>
+        <v>479.7320773538913</v>
       </c>
       <c r="Y25" t="n">
-        <v>777.9647441187624</v>
+        <v>280.7988908323908</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2438.386230178005</v>
+        <v>2280.336348778311</v>
       </c>
       <c r="C26" t="n">
-        <v>2044.090948033857</v>
+        <v>1892.474085756893</v>
       </c>
       <c r="D26" t="n">
-        <v>1655.456326669501</v>
+        <v>1510.272483515266</v>
       </c>
       <c r="E26" t="n">
-        <v>1256.94541972898</v>
+        <v>1118.194595697475</v>
       </c>
       <c r="F26" t="n">
-        <v>851.7443162252508</v>
+        <v>719.4265113164752</v>
       </c>
       <c r="G26" t="n">
-        <v>458.8453406606659</v>
+        <v>332.9605548746197</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309667</v>
+        <v>157.3331327082373</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4545.869976738794</v>
+        <v>4549.166136990553</v>
       </c>
       <c r="T26" t="n">
-        <v>4545.869976738794</v>
+        <v>4349.221980602724</v>
       </c>
       <c r="U26" t="n">
-        <v>4304.638793540887</v>
+        <v>4114.423816527546</v>
       </c>
       <c r="V26" t="n">
-        <v>3970.630547419951</v>
+        <v>3786.84858952934</v>
       </c>
       <c r="W26" t="n">
-        <v>3602.699555097703</v>
+        <v>3425.350616329821</v>
       </c>
       <c r="X26" t="n">
-        <v>3217.885465809238</v>
+        <v>3046.969546164085</v>
       </c>
       <c r="Y26" t="n">
-        <v>2832.778101299911</v>
+        <v>2668.295200777488</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>971.2556508405883</v>
+        <v>876.1534563340354</v>
       </c>
       <c r="C28" t="n">
-        <v>815.9915869448877</v>
+        <v>727.3224115610642</v>
       </c>
       <c r="D28" t="n">
-        <v>672.3262508103805</v>
+        <v>590.0900945492865</v>
       </c>
       <c r="E28" t="n">
-        <v>527.2447442212829</v>
+        <v>451.4416070829183</v>
       </c>
       <c r="F28" t="n">
-        <v>378.442926874457</v>
+        <v>309.0728088588219</v>
       </c>
       <c r="G28" t="n">
-        <v>227.0218443425833</v>
+        <v>164.0847454496777</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>164.0847454496777</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984188</v>
+        <v>129.145554440606</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232423</v>
+        <v>305.5171895076166</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058883</v>
+        <v>587.2335971324499</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489671</v>
+        <v>898.3169609177157</v>
       </c>
       <c r="N28" t="n">
-        <v>1169.450040445803</v>
+        <v>1200.975050656739</v>
       </c>
       <c r="O28" t="n">
-        <v>1444.524956074863</v>
+        <v>1482.354968327985</v>
       </c>
       <c r="P28" t="n">
-        <v>1665.71470162706</v>
+        <v>1709.84971592237</v>
       </c>
       <c r="Q28" t="n">
-        <v>1746.757036732157</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="R28" t="n">
-        <v>1677.313626950139</v>
+        <v>1734.186662410366</v>
       </c>
       <c r="S28" t="n">
-        <v>1677.313626950139</v>
+        <v>1570.057221955589</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.594196469424</v>
+        <v>1352.770810597603</v>
       </c>
       <c r="U28" t="n">
-        <v>1352.032438760702</v>
+        <v>1092.23499080904</v>
       </c>
       <c r="V28" t="n">
-        <v>1352.032438760702</v>
+        <v>1092.23499080904</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.032438760702</v>
+        <v>1092.23499080904</v>
       </c>
       <c r="X28" t="n">
-        <v>1352.032438760702</v>
+        <v>876.1534563340354</v>
       </c>
       <c r="Y28" t="n">
-        <v>1143.12604869205</v>
+        <v>876.1534563340354</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2438.386230178005</v>
+        <v>2393.355096318897</v>
       </c>
       <c r="C29" t="n">
-        <v>2044.090948033857</v>
+        <v>2005.49283329748</v>
       </c>
       <c r="D29" t="n">
-        <v>1655.456326669501</v>
+        <v>1623.291231055853</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.94541972898</v>
+        <v>1231.213343238062</v>
       </c>
       <c r="F29" t="n">
-        <v>851.7443162252508</v>
+        <v>832.445258857062</v>
       </c>
       <c r="G29" t="n">
-        <v>458.8453406606659</v>
+        <v>445.9793024152069</v>
       </c>
       <c r="H29" t="n">
-        <v>163.7661518309667</v>
+        <v>157.3331327082373</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4545.869976738794</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4545.869976738794</v>
+        <v>4462.240728143311</v>
       </c>
       <c r="U29" t="n">
-        <v>4304.638793540887</v>
+        <v>4227.442564068133</v>
       </c>
       <c r="V29" t="n">
-        <v>3970.630547419951</v>
+        <v>3899.867337069926</v>
       </c>
       <c r="W29" t="n">
-        <v>3602.699555097703</v>
+        <v>3538.369363870407</v>
       </c>
       <c r="X29" t="n">
-        <v>3217.885465809238</v>
+        <v>3159.988293704672</v>
       </c>
       <c r="Y29" t="n">
-        <v>2832.778101299911</v>
+        <v>2781.313948318074</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.3285650916931</v>
+        <v>392.3891622811988</v>
       </c>
       <c r="C31" t="n">
-        <v>665.3285650916931</v>
+        <v>392.3891622811988</v>
       </c>
       <c r="D31" t="n">
-        <v>665.3285650916931</v>
+        <v>392.3891622811988</v>
       </c>
       <c r="E31" t="n">
-        <v>627.7614815743739</v>
+        <v>392.3891622811988</v>
       </c>
       <c r="F31" t="n">
-        <v>478.9596642275479</v>
+        <v>392.3891622811988</v>
       </c>
       <c r="G31" t="n">
-        <v>327.5385816956742</v>
+        <v>314.6725434502153</v>
       </c>
       <c r="H31" t="n">
-        <v>193.7604350437138</v>
+        <v>187.3274159209843</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>122.8405523984188</v>
+        <v>129.145554440606</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9071854232423</v>
+        <v>305.5171895076166</v>
       </c>
       <c r="L31" t="n">
-        <v>568.3185910058883</v>
+        <v>587.2335971324499</v>
       </c>
       <c r="M31" t="n">
-        <v>873.0969527489671</v>
+        <v>898.3169609177157</v>
       </c>
       <c r="N31" t="n">
-        <v>1169.450040445803</v>
+        <v>1200.975050656739</v>
       </c>
       <c r="O31" t="n">
-        <v>1444.524956074863</v>
+        <v>1482.354968327985</v>
       </c>
       <c r="P31" t="n">
-        <v>1665.71470162706</v>
+        <v>1709.84971592237</v>
       </c>
       <c r="Q31" t="n">
-        <v>1746.757036732157</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="R31" t="n">
-        <v>1677.313626950139</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="S31" t="n">
-        <v>1677.313626950139</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.594196469424</v>
+        <v>1579.910641711668</v>
       </c>
       <c r="U31" t="n">
-        <v>1186.625357558131</v>
+        <v>1319.374821923105</v>
       </c>
       <c r="V31" t="n">
-        <v>928.5689210402359</v>
+        <v>1067.751404527939</v>
       </c>
       <c r="W31" t="n">
-        <v>665.3285650916931</v>
+        <v>810.9440677021259</v>
       </c>
       <c r="X31" t="n">
-        <v>665.3285650916931</v>
+        <v>594.8625332271217</v>
       </c>
       <c r="Y31" t="n">
-        <v>665.3285650916931</v>
+        <v>392.3891622811988</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2367.863776037661</v>
+        <v>2329.265661301284</v>
       </c>
       <c r="C32" t="n">
-        <v>1973.568493893513</v>
+        <v>1941.403398279866</v>
       </c>
       <c r="D32" t="n">
-        <v>1584.933872529157</v>
+        <v>1559.201796038239</v>
       </c>
       <c r="E32" t="n">
-        <v>1186.422965588637</v>
+        <v>1167.123908220448</v>
       </c>
       <c r="F32" t="n">
-        <v>781.2218620849069</v>
+        <v>768.3558238394479</v>
       </c>
       <c r="G32" t="n">
-        <v>388.322886520322</v>
+        <v>381.8898673975925</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4549.166136990553</v>
       </c>
       <c r="T32" t="n">
-        <v>4475.34752259845</v>
+        <v>4349.221980602724</v>
       </c>
       <c r="U32" t="n">
-        <v>4234.116339400543</v>
+        <v>4114.423816527546</v>
       </c>
       <c r="V32" t="n">
-        <v>3900.108093279607</v>
+        <v>3786.84858952934</v>
       </c>
       <c r="W32" t="n">
-        <v>3532.177100957359</v>
+        <v>3425.350616329821</v>
       </c>
       <c r="X32" t="n">
-        <v>3147.363011668894</v>
+        <v>3095.898858687058</v>
       </c>
       <c r="Y32" t="n">
-        <v>2762.255647159567</v>
+        <v>2717.224513300461</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1071.772388193679</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>916.5083242979787</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>772.8429881634715</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>627.7614815743739</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>478.9596642275479</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>327.5385816956742</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>193.7604350437138</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>122.8405523984188</v>
+        <v>129.145554440606</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9071854232423</v>
+        <v>305.5171895076166</v>
       </c>
       <c r="L34" t="n">
-        <v>568.3185910058883</v>
+        <v>587.2335971324499</v>
       </c>
       <c r="M34" t="n">
-        <v>873.0969527489671</v>
+        <v>898.3169609177157</v>
       </c>
       <c r="N34" t="n">
-        <v>1169.450040445803</v>
+        <v>1200.975050656739</v>
       </c>
       <c r="O34" t="n">
-        <v>1444.524956074863</v>
+        <v>1482.354968327985</v>
       </c>
       <c r="P34" t="n">
-        <v>1665.71470162706</v>
+        <v>1709.84971592237</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.757036732157</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="R34" t="n">
-        <v>1746.757036732157</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.063729711527</v>
+        <v>1633.067612614877</v>
       </c>
       <c r="T34" t="n">
-        <v>1675.063729711527</v>
+        <v>1415.781201256891</v>
       </c>
       <c r="U34" t="n">
-        <v>1675.063729711527</v>
+        <v>1155.245381468328</v>
       </c>
       <c r="V34" t="n">
-        <v>1675.063729711527</v>
+        <v>903.621964073162</v>
       </c>
       <c r="W34" t="n">
-        <v>1675.063729711527</v>
+        <v>646.8146272473487</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.549176113793</v>
+        <v>430.7330927723444</v>
       </c>
       <c r="Y34" t="n">
-        <v>1243.642786045141</v>
+        <v>228.2597218264214</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2438.386230178004</v>
+        <v>2329.265661301284</v>
       </c>
       <c r="C35" t="n">
-        <v>2044.090948033857</v>
+        <v>1941.403398279866</v>
       </c>
       <c r="D35" t="n">
-        <v>1655.4563266695</v>
+        <v>1559.201796038239</v>
       </c>
       <c r="E35" t="n">
-        <v>1256.94541972898</v>
+        <v>1167.123908220448</v>
       </c>
       <c r="F35" t="n">
-        <v>851.7443162252507</v>
+        <v>768.3558238394479</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606658</v>
+        <v>381.8898673975925</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4542.733117867823</v>
+        <v>4549.166136990553</v>
       </c>
       <c r="T35" t="n">
-        <v>4542.733117867823</v>
+        <v>4349.221980602724</v>
       </c>
       <c r="U35" t="n">
-        <v>4304.638793540887</v>
+        <v>4163.35312905052</v>
       </c>
       <c r="V35" t="n">
-        <v>3970.63054741995</v>
+        <v>3835.777902052313</v>
       </c>
       <c r="W35" t="n">
-        <v>3602.699555097702</v>
+        <v>3474.279928852794</v>
       </c>
       <c r="X35" t="n">
-        <v>3217.885465809237</v>
+        <v>3095.898858687058</v>
       </c>
       <c r="Y35" t="n">
-        <v>2832.77810129991</v>
+        <v>2717.224513300461</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.2436976906228</v>
+        <v>278.9038775726937</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>187.3274159209843</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>187.3274159209843</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>187.3274159209843</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>187.3274159209843</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>187.3274159209843</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>187.3274159209843</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984189</v>
+        <v>129.145554440606</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232424</v>
+        <v>305.5171895076166</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058885</v>
+        <v>587.2335971324499</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489674</v>
+        <v>898.3169609177157</v>
       </c>
       <c r="N37" t="n">
-        <v>1169.450040445803</v>
+        <v>1200.975050656739</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.524956074863</v>
+        <v>1482.354968327985</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.714701627061</v>
+        <v>1709.84971592237</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.757036732157</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="R37" t="n">
-        <v>1746.757036732157</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="S37" t="n">
-        <v>1576.19457715465</v>
+        <v>1633.067612614877</v>
       </c>
       <c r="T37" t="n">
-        <v>1352.475146673935</v>
+        <v>1415.781201256891</v>
       </c>
       <c r="U37" t="n">
-        <v>1085.506307762642</v>
+        <v>1155.245381468328</v>
       </c>
       <c r="V37" t="n">
-        <v>959.775395157013</v>
+        <v>903.621964073162</v>
       </c>
       <c r="W37" t="n">
-        <v>696.5350392084704</v>
+        <v>646.8146272473487</v>
       </c>
       <c r="X37" t="n">
-        <v>474.0204856107366</v>
+        <v>646.8146272473487</v>
       </c>
       <c r="Y37" t="n">
-        <v>265.1140955420843</v>
+        <v>444.3412563014257</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2228.872195796475</v>
+        <v>2393.355096318898</v>
       </c>
       <c r="C38" t="n">
-        <v>1834.576913652328</v>
+        <v>2005.492833297481</v>
       </c>
       <c r="D38" t="n">
-        <v>1445.942292287972</v>
+        <v>1623.291231055853</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.431385347452</v>
+        <v>1231.213343238062</v>
       </c>
       <c r="F38" t="n">
-        <v>642.2302818437222</v>
+        <v>832.4452588570623</v>
       </c>
       <c r="G38" t="n">
-        <v>458.8453406606658</v>
+        <v>445.9793024152069</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>157.3331327082373</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4462.240728143312</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4227.442564068134</v>
       </c>
       <c r="V38" t="n">
-        <v>3761.116513038422</v>
+        <v>3899.867337069927</v>
       </c>
       <c r="W38" t="n">
-        <v>3393.185520716173</v>
+        <v>3538.369363870408</v>
       </c>
       <c r="X38" t="n">
-        <v>3008.371431427709</v>
+        <v>3159.988293704673</v>
       </c>
       <c r="Y38" t="n">
-        <v>2623.264066918382</v>
+        <v>2781.313948318075</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>1392.027034650488</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1392.027034650488</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>1392.027034650488</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1071.772388193679</v>
+        <v>443.033318027471</v>
       </c>
       <c r="C40" t="n">
-        <v>916.5083242979783</v>
+        <v>294.2022732544998</v>
       </c>
       <c r="D40" t="n">
-        <v>772.8429881634713</v>
+        <v>294.2022732544998</v>
       </c>
       <c r="E40" t="n">
-        <v>627.7614815743736</v>
+        <v>155.5537857881316</v>
       </c>
       <c r="F40" t="n">
-        <v>478.9596642275478</v>
+        <v>155.5537857881316</v>
       </c>
       <c r="G40" t="n">
-        <v>327.5385816956741</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>122.8405523984189</v>
+        <v>129.145554440606</v>
       </c>
       <c r="K40" t="n">
-        <v>292.9071854232424</v>
+        <v>305.5171895076166</v>
       </c>
       <c r="L40" t="n">
-        <v>568.3185910058885</v>
+        <v>587.2335971324499</v>
       </c>
       <c r="M40" t="n">
-        <v>873.0969527489674</v>
+        <v>898.3169609177157</v>
       </c>
       <c r="N40" t="n">
-        <v>1169.450040445803</v>
+        <v>1200.975050656739</v>
       </c>
       <c r="O40" t="n">
-        <v>1444.524956074863</v>
+        <v>1482.354968327985</v>
       </c>
       <c r="P40" t="n">
-        <v>1665.714701627061</v>
+        <v>1709.84971592237</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.757036732157</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="R40" t="n">
-        <v>1746.757036732157</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="S40" t="n">
-        <v>1746.757036732157</v>
+        <v>1797.197053069654</v>
       </c>
       <c r="T40" t="n">
-        <v>1746.757036732157</v>
+        <v>1579.910641711668</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.757036732157</v>
+        <v>1319.374821923105</v>
       </c>
       <c r="V40" t="n">
-        <v>1746.757036732157</v>
+        <v>1067.751404527939</v>
       </c>
       <c r="W40" t="n">
-        <v>1675.063729711527</v>
+        <v>810.9440677021259</v>
       </c>
       <c r="X40" t="n">
-        <v>1452.549176113793</v>
+        <v>810.9440677021259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1243.642786045141</v>
+        <v>608.470696756203</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2485.998028320643</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>2075.873437633913</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1671.409507726974</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>1257.069292243871</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F41" t="n">
-        <v>836.0388801975582</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G41" t="n">
-        <v>427.3105960903904</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>141.3700819604442</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7450,13 +7450,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3697.79927886809</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3297.155881037042</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2896.219207985132</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>844.5103911440685</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>844.5103911440685</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
         <v>2110.173374178493</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.012802054753</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8995485738499</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>421.4049038967599</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1350.978107866783</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U43" t="n">
-        <v>1350.978107866783</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V43" t="n">
-        <v>1077.092362806305</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W43" t="n">
-        <v>1077.092362806305</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X43" t="n">
-        <v>838.7485006659883</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
-        <v>614.012802054753</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>367.9722053268528</v>
+        <v>518.69184345793</v>
       </c>
       <c r="C46" t="n">
-        <v>367.9722053268528</v>
+        <v>518.69184345793</v>
       </c>
       <c r="D46" t="n">
-        <v>367.9722053268528</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E46" t="n">
-        <v>367.9722053268528</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F46" t="n">
-        <v>260.4940887650794</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1297.821136963575</v>
+        <v>1354.445400463409</v>
       </c>
       <c r="U46" t="n">
-        <v>1297.821136963575</v>
+        <v>1071.647253009534</v>
       </c>
       <c r="V46" t="n">
-        <v>1297.821136963575</v>
+        <v>797.7615079490556</v>
       </c>
       <c r="W46" t="n">
-        <v>1018.751472472449</v>
+        <v>518.69184345793</v>
       </c>
       <c r="X46" t="n">
-        <v>780.4076103321324</v>
+        <v>518.69184345793</v>
       </c>
       <c r="Y46" t="n">
-        <v>555.6719117208971</v>
+        <v>518.69184345793</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>594.2603172363632</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8057,19 +8057,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>62.07087134908654</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>359.4030239885896</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8081,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>265.701425083553</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8227,7 +8227,7 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>337.1293820533569</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8236,7 +8236,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>62.07087134908675</v>
+        <v>230.7561945635733</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8303,19 +8303,19 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8455,7 +8455,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>224.7351163062146</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
@@ -8467,16 +8467,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>425.4271248393446</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>554.1634861730672</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>361.079260496652</v>
+        <v>341.6280539455204</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,10 +9011,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>285.4811293141939</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9023,10 +9023,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>596.5640636445446</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9251,22 +9251,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>557.7944283533855</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>147.9380505529371</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10919,13 +10919,13 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>426.2817308048455</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>816.4195296509889</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11302,7 +11302,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.31682136250803</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>160.2782223612665</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>143.8379517450632</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>132.3552112614816</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>133.7572200115262</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501635</v>
+        <v>58.87550417251687</v>
       </c>
       <c r="S13" t="n">
-        <v>110.9492631375167</v>
+        <v>158.9833634700514</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>145.0157153177901</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>59.31682136250803</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>160.2782223612665</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>132.3552112614816</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>133.7572200115262</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.81232931860123</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>58.87550417251687</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>211.6087646642274</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>51.53176317589535</v>
+        <v>210.415936550076</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>59.3168213625076</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>143.8379517450632</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>132.3552112614816</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>133.7572200115262</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>137.4403276616772</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>140.0334001948745</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>122.5668936737604</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>64.23667961879575</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>58.87550417251687</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>92.28619860169201</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>59.31682136250803</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>97.16547482467655</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>143.8379517450632</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>132.3552112614816</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>133.7572200115262</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>137.4403276616772</v>
       </c>
       <c r="G22" t="n">
-        <v>136.0789454373741</v>
+        <v>140.0334001948745</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037916</v>
+        <v>89.63809846787963</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>58.87550417251687</v>
       </c>
       <c r="S22" t="n">
-        <v>17.7195296404154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>59.3168213625076</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>118.4365328959793</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>132.3552112614816</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.7572200115262</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>137.4403276616772</v>
       </c>
       <c r="G25" t="n">
-        <v>77.0284814619281</v>
+        <v>140.0334001948745</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>122.5668936737604</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>89.63809846787963</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>58.87550417251687</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>111.8885600651813</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.105490282261187</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554527</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>163.7830049414447</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>126.0716762539387</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997956005</v>
+        <v>23.01024376659352</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817318</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>163.7530103905454</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527162</v>
+        <v>249.107183221214</v>
       </c>
       <c r="W28" t="n">
-        <v>260.6079523890573</v>
+        <v>254.2392634575551</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617564</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.4486372364637</v>
       </c>
     </row>
     <row r="29">
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.105490282261187</v>
+        <v>111.8885600651809</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554527</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1516938729469</v>
+        <v>163.7830049414447</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567436</v>
+        <v>147.3427343252414</v>
       </c>
       <c r="D31" t="n">
-        <v>142.228682773162</v>
+        <v>135.8599938416598</v>
       </c>
       <c r="E31" t="n">
-        <v>106.4392788410606</v>
+        <v>137.2620025917045</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>140.9451102418554</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>66.59873013237915</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>62.38028675269512</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817318</v>
+        <v>162.4881460502296</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>220.2894080617564</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894051</v>
+        <v>63.44854066743834</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.2572489966831</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>19.34441544209022</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>48.44001939774296</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>30.11714104700405</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>147.3427343252414</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>135.8599938416598</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>137.2620025917045</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>140.9451102418554</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>143.5381827750528</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>126.0716762539387</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>93.14288104805789</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419729</v>
+        <v>62.38028675269512</v>
       </c>
       <c r="S34" t="n">
-        <v>97.88046103130847</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4822361759079</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890573</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>63.44854066743834</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3134037554527</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.105490282260604</v>
+        <v>48.44001939774338</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567436</v>
+        <v>56.68203729004918</v>
       </c>
       <c r="D37" t="n">
-        <v>142.228682773162</v>
+        <v>135.8599938416598</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232066</v>
+        <v>137.2620025917045</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733576</v>
+        <v>140.9451102418554</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065549</v>
+        <v>143.5381827750528</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854408</v>
+        <v>126.0716762539387</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997955999</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419723</v>
+        <v>62.38028675269512</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>131.0022686731431</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>213.9207191302542</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4188940377132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>111.8885600651818</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>135.8599938416598</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>140.9451102418554</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>81.85119555851904</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>126.0716762539387</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>93.14288104805789</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419723</v>
+        <v>62.38028675269512</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8568349817317</v>
+        <v>162.4881460502296</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>189.6315784386335</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>213.9207191302542</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>62.56142803888687</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>37.84312462897442</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>136.6003177678065</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>193.4209809967735</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>56.58147923435899</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>56.05802086483644</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>567200.2791300198</v>
+        <v>561089.0378574863</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>567200.2791300198</v>
+        <v>561089.0378574863</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>567200.2791300197</v>
+        <v>561089.0378574863</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>567200.2791300199</v>
+        <v>561089.0378574863</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>567200.2791300197</v>
+        <v>561089.0378574862</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>545830.507843729</v>
+        <v>555672.7230255571</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>545830.507843729</v>
+        <v>555672.7230255574</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>545830.5078437289</v>
+        <v>555672.7230255572</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>545830.507843729</v>
+        <v>555672.7230255572</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>545830.507843729</v>
+        <v>555672.7230255572</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>521612.4139933334</v>
+        <v>521612.4139933333</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>521612.4139933332</v>
+        <v>521612.4139933334</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>570088.3756135994</v>
       </c>
       <c r="C2" t="n">
-        <v>570088.3756135994</v>
+        <v>570088.3756135995</v>
       </c>
       <c r="D2" t="n">
-        <v>570088.3756135994</v>
+        <v>570088.3756135993</v>
       </c>
       <c r="E2" t="n">
-        <v>552473.0333231011</v>
+        <v>546361.7920505676</v>
       </c>
       <c r="F2" t="n">
-        <v>552473.0333231014</v>
+        <v>546361.7920505675</v>
       </c>
       <c r="G2" t="n">
-        <v>552473.0333231018</v>
+        <v>546361.7920505675</v>
       </c>
       <c r="H2" t="n">
-        <v>552473.033323101</v>
+        <v>546361.7920505676</v>
       </c>
       <c r="I2" t="n">
-        <v>552473.033323102</v>
+        <v>546361.7920505675</v>
       </c>
       <c r="J2" t="n">
-        <v>531103.2620368097</v>
+        <v>540945.4772186388</v>
       </c>
       <c r="K2" t="n">
-        <v>531103.2620368096</v>
+        <v>540945.4772186392</v>
       </c>
       <c r="L2" t="n">
-        <v>531103.2620368096</v>
+        <v>540945.4772186386</v>
       </c>
       <c r="M2" t="n">
-        <v>531103.2620368093</v>
+        <v>540945.4772186388</v>
       </c>
       <c r="N2" t="n">
-        <v>531103.2620368096</v>
+        <v>540945.4772186386</v>
       </c>
       <c r="O2" t="n">
-        <v>506885.1681864143</v>
+        <v>506885.1681864142</v>
       </c>
       <c r="P2" t="n">
         <v>506885.1681864143</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>212565.3524745132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>149131.6131716206</v>
+        <v>154226.5643168224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>164775.2337200961</v>
       </c>
       <c r="E4" t="n">
-        <v>45275.4031539329</v>
+        <v>41279.24580895543</v>
       </c>
       <c r="F4" t="n">
-        <v>45275.4031539329</v>
+        <v>41279.24580895543</v>
       </c>
       <c r="G4" t="n">
-        <v>45275.4031539329</v>
+        <v>41279.24580895543</v>
       </c>
       <c r="H4" t="n">
-        <v>45275.40315393284</v>
+        <v>41279.24580895543</v>
       </c>
       <c r="I4" t="n">
-        <v>45275.40315393284</v>
+        <v>41279.24580895542</v>
       </c>
       <c r="J4" t="n">
-        <v>31301.65139420323</v>
+        <v>37737.50275986289</v>
       </c>
       <c r="K4" t="n">
-        <v>31301.65139420323</v>
+        <v>37737.50275986289</v>
       </c>
       <c r="L4" t="n">
-        <v>31301.65139420323</v>
+        <v>37737.50275986289</v>
       </c>
       <c r="M4" t="n">
-        <v>31301.65139420329</v>
+        <v>37737.50275986289</v>
       </c>
       <c r="N4" t="n">
-        <v>31301.65139420329</v>
+        <v>37737.50275986289</v>
       </c>
       <c r="O4" t="n">
         <v>15465.37373706398</v>
@@ -26478,34 +26478,34 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686482</v>
+        <v>73012.70971985652</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686482</v>
+        <v>73012.70971985652</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686482</v>
+        <v>73012.70971985652</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686482</v>
+        <v>73012.70971985652</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686482</v>
+        <v>73012.70971985652</v>
       </c>
       <c r="J5" t="n">
-        <v>72182.65684334106</v>
+        <v>72718.06615312351</v>
       </c>
       <c r="K5" t="n">
-        <v>72182.65684334106</v>
+        <v>72718.06615312351</v>
       </c>
       <c r="L5" t="n">
-        <v>72182.65684334106</v>
+        <v>72718.06615312351</v>
       </c>
       <c r="M5" t="n">
-        <v>72182.65684334106</v>
+        <v>72718.06615312351</v>
       </c>
       <c r="N5" t="n">
-        <v>72182.65684334106</v>
+        <v>72718.06615312351</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164988.5669218918</v>
+        <v>164988.5669218917</v>
       </c>
       <c r="C6" t="n">
-        <v>339944.0768150058</v>
+        <v>339944.0768150059</v>
       </c>
       <c r="D6" t="n">
         <v>339944.0768150057</v>
       </c>
       <c r="E6" t="n">
-        <v>218123.5571117898</v>
+        <v>219436.6938084909</v>
       </c>
       <c r="F6" t="n">
-        <v>433852.4733923036</v>
+        <v>432002.046283004</v>
       </c>
       <c r="G6" t="n">
-        <v>433852.4733923041</v>
+        <v>432002.046283004</v>
       </c>
       <c r="H6" t="n">
-        <v>433852.4733923034</v>
+        <v>432002.0462830042</v>
       </c>
       <c r="I6" t="n">
-        <v>433852.4733923044</v>
+        <v>432002.046283004</v>
       </c>
       <c r="J6" t="n">
-        <v>278487.3406276448</v>
+        <v>276180.0785648444</v>
       </c>
       <c r="K6" t="n">
-        <v>427618.9537992653</v>
+        <v>430406.6428816672</v>
       </c>
       <c r="L6" t="n">
-        <v>427618.9537992653</v>
+        <v>430406.6428816666</v>
       </c>
       <c r="M6" t="n">
-        <v>267260.5032985823</v>
+        <v>270048.192380984</v>
       </c>
       <c r="N6" t="n">
-        <v>427618.9537992652</v>
+        <v>430406.6428816666</v>
       </c>
       <c r="O6" t="n">
-        <v>420554.584204477</v>
+        <v>420374.0036118278</v>
       </c>
       <c r="P6" t="n">
-        <v>420554.584204477</v>
+        <v>420374.0036118279</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="K2" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>169.8642778116095</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>255.0621803990532</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>195.1889420768798</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>157.0631340559315</v>
       </c>
     </row>
     <row r="5">
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>143.0746331224493</v>
+        <v>285.2217101521013</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27830,19 +27830,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>226.5104298351669</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>24.81305682518624</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>145.411143792297</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>146.4239395205296</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>126.9450269688243</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="C11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="D11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="E11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="T11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="U11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="V11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="W11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="X11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="C13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="D13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="E13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="K13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="L13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="M13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="N13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="O13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="P13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="R13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="S13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="T13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="U13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="V13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="W13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="X13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="C14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="D14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="E14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="T14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="U14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="V14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="W14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="X14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="C16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="D16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="E16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="K16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="L16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="M16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="N16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="O16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="P16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="R16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="S16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="T16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="U16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="V16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="W16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="X16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>25.54448696883747</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633794</v>
+        <v>25.54448696883747</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715705</v>
+        <v>22.03970438865922</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="C38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="D38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="E38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="F38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="G38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="H38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="T38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="U38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="V38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="W38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="X38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="C40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="D40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="E40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="F40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="G40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="H40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="I40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="J40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="K40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="L40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="M40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="N40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="O40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="P40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="R40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="S40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="T40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="U40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="V40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="W40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="X40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.67101545715711</v>
+        <v>22.03970438865922</v>
       </c>
     </row>
     <row r="41">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>500.9700927793178</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.70163254908653</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34947,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.70163254908674</v>
+        <v>179.3869557635733</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35023,19 +35023,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
@@ -35187,16 +35187,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>367.8628411009272</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>303.327781496652</v>
+        <v>283.8765749455204</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>39.769284347838</v>
       </c>
       <c r="K13" t="n">
-        <v>185.6124040720329</v>
+        <v>181.6579493145324</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>288.0668104840502</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>317.7304025652953</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>309.2200247408074</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>287.7269216420437</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>233.2974569179409</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>91.73441606228276</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>542.3044286417409</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533852</v>
+        <v>39.769284347838</v>
       </c>
       <c r="K16" t="n">
-        <v>185.6124040720329</v>
+        <v>181.6579493145324</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>288.0668104840502</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227958</v>
+        <v>317.7304025652953</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>309.2200247408074</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>287.7269216420437</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>233.2974569179409</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>91.73441606228276</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>504.6010349596355</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>39.769284347838</v>
       </c>
       <c r="K19" t="n">
-        <v>185.6124040720329</v>
+        <v>181.6579493145324</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>288.0668104840502</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227958</v>
+        <v>317.7304025652953</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>309.2200247408074</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>287.7269216420437</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>233.2974569179409</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>91.73441606228276</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>90.37376681451964</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533847</v>
+        <v>39.769284347838</v>
       </c>
       <c r="K22" t="n">
-        <v>185.6124040720329</v>
+        <v>181.6579493145324</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415506</v>
+        <v>288.0668104840502</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227958</v>
+        <v>317.7304025652953</v>
       </c>
       <c r="N22" t="n">
-        <v>313.1744794983079</v>
+        <v>309.2200247408074</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995441</v>
+        <v>287.7269216420437</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754413</v>
+        <v>233.2974569179409</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978323</v>
+        <v>91.73441606228276</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533847</v>
+        <v>39.769284347838</v>
       </c>
       <c r="K25" t="n">
-        <v>185.6124040720329</v>
+        <v>181.6579493145324</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415506</v>
+        <v>288.0668104840502</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227958</v>
+        <v>317.7304025652953</v>
       </c>
       <c r="N25" t="n">
-        <v>313.1744794983079</v>
+        <v>309.2200247408074</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995441</v>
+        <v>287.7269216420437</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754413</v>
+        <v>233.2974569179409</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978323</v>
+        <v>91.73441606228276</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615757</v>
+        <v>36.26450176765975</v>
       </c>
       <c r="K28" t="n">
-        <v>171.784477802852</v>
+        <v>178.1531667343542</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723698</v>
+        <v>284.5620279038719</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8569310536149</v>
+        <v>314.2256199851171</v>
       </c>
       <c r="N28" t="n">
-        <v>299.346553229127</v>
+        <v>305.7152421606292</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303633</v>
+        <v>284.2221390618654</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062604</v>
+        <v>229.7926743377626</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060234</v>
+        <v>88.2296334821045</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615757</v>
+        <v>36.26450176765975</v>
       </c>
       <c r="K31" t="n">
-        <v>171.784477802852</v>
+        <v>178.1531667343542</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723698</v>
+        <v>284.5620279038719</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8569310536149</v>
+        <v>314.2256199851171</v>
       </c>
       <c r="N31" t="n">
-        <v>299.346553229127</v>
+        <v>305.7152421606292</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303633</v>
+        <v>284.2221390618654</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062604</v>
+        <v>229.7926743377626</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060234</v>
+        <v>88.2296334821045</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615757</v>
+        <v>36.26450176765975</v>
       </c>
       <c r="K34" t="n">
-        <v>171.784477802852</v>
+        <v>178.1531667343542</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723698</v>
+        <v>284.5620279038719</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8569310536149</v>
+        <v>314.2256199851171</v>
       </c>
       <c r="N34" t="n">
-        <v>299.346553229127</v>
+        <v>305.7152421606292</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303633</v>
+        <v>284.2221390618654</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062604</v>
+        <v>229.7926743377626</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060234</v>
+        <v>88.2296334821045</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615764</v>
+        <v>36.26450176765975</v>
       </c>
       <c r="K37" t="n">
-        <v>171.784477802852</v>
+        <v>178.1531667343542</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723698</v>
+        <v>284.5620279038719</v>
       </c>
       <c r="M37" t="n">
-        <v>307.856931053615</v>
+        <v>314.2256199851171</v>
       </c>
       <c r="N37" t="n">
-        <v>299.3465532291271</v>
+        <v>305.7152421606292</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303633</v>
+        <v>284.2221390618654</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062605</v>
+        <v>229.7926743377626</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.8609445506024</v>
+        <v>88.2296334821045</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>372.0220958020417</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615764</v>
+        <v>36.26450176765975</v>
       </c>
       <c r="K40" t="n">
-        <v>171.784477802852</v>
+        <v>178.1531667343542</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723698</v>
+        <v>284.5620279038719</v>
       </c>
       <c r="M40" t="n">
-        <v>307.856931053615</v>
+        <v>314.2256199851171</v>
       </c>
       <c r="N40" t="n">
-        <v>299.3465532291271</v>
+        <v>305.7152421606292</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8534501303633</v>
+        <v>284.2221390618654</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062605</v>
+        <v>229.7926743377626</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.8609445506024</v>
+        <v>88.2296334821045</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>758.8552459125715</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -38022,7 +38022,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
